--- a/Code/Results/Cases/Case_3_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.90528758291562</v>
+        <v>16.21836188366955</v>
       </c>
       <c r="C2">
-        <v>11.51937209594018</v>
+        <v>8.605727679572531</v>
       </c>
       <c r="D2">
-        <v>5.227669954346416</v>
+        <v>8.811127173145866</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.8222700597276</v>
+        <v>34.09013796710386</v>
       </c>
       <c r="G2">
-        <v>2.092082757065064</v>
+        <v>3.662729381142114</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.23138387425854</v>
+        <v>25.19782175660043</v>
       </c>
       <c r="J2">
-        <v>6.128660824862806</v>
+        <v>10.31796117393695</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.201429748590648</v>
+        <v>11.8432712171455</v>
       </c>
       <c r="M2">
-        <v>12.30158599216066</v>
+        <v>16.6034853301032</v>
       </c>
       <c r="N2">
-        <v>12.63362605607502</v>
+        <v>18.86876288371683</v>
       </c>
       <c r="O2">
-        <v>16.81312007149808</v>
+        <v>25.86627466905471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.63162991456239</v>
+        <v>15.83908569977678</v>
       </c>
       <c r="C3">
-        <v>10.9519044557515</v>
+        <v>8.355152980597151</v>
       </c>
       <c r="D3">
-        <v>5.185671935377477</v>
+        <v>8.818453654927906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.51973422478656</v>
+        <v>34.15452684217377</v>
       </c>
       <c r="G3">
-        <v>2.097195006268327</v>
+        <v>3.664735672705961</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.35352343657591</v>
+        <v>25.29566029792337</v>
       </c>
       <c r="J3">
-        <v>6.174853348338267</v>
+        <v>10.33500864169642</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.106663595362756</v>
+        <v>11.84894389026018</v>
       </c>
       <c r="M3">
-        <v>11.7937040178488</v>
+        <v>16.52864988538082</v>
       </c>
       <c r="N3">
-        <v>12.78737756674332</v>
+        <v>18.92061666096053</v>
       </c>
       <c r="O3">
-        <v>16.66911336029614</v>
+        <v>25.92864198422926</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.84914126373225</v>
+        <v>15.60373641578065</v>
       </c>
       <c r="C4">
-        <v>10.58766208850993</v>
+        <v>8.196057950913618</v>
       </c>
       <c r="D4">
-        <v>5.161314531336279</v>
+        <v>8.82379069391115</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.35124806739385</v>
+        <v>34.20169187913827</v>
       </c>
       <c r="G4">
-        <v>2.100437483609164</v>
+        <v>3.666034153018252</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.44041852899753</v>
+        <v>25.36037291759616</v>
       </c>
       <c r="J4">
-        <v>6.204118133608708</v>
+        <v>10.34602133646689</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.050413262664835</v>
+        <v>11.8537564335078</v>
       </c>
       <c r="M4">
-        <v>11.47406630104111</v>
+        <v>16.48463637088586</v>
       </c>
       <c r="N4">
-        <v>12.8850145555362</v>
+        <v>18.95421606230185</v>
       </c>
       <c r="O4">
-        <v>16.59436960857488</v>
+        <v>25.97245907011188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.52018241427917</v>
+        <v>15.5073441134522</v>
       </c>
       <c r="C5">
-        <v>10.43534833256451</v>
+        <v>8.129968578666034</v>
       </c>
       <c r="D5">
-        <v>5.151751176511536</v>
+        <v>8.826176939829532</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.28688936205256</v>
+        <v>34.22282753450633</v>
       </c>
       <c r="G5">
-        <v>2.101785383454179</v>
+        <v>3.666580095822614</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.47869901763745</v>
+        <v>25.3879096328917</v>
       </c>
       <c r="J5">
-        <v>6.21627405441088</v>
+        <v>10.35064665646128</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.027993483967037</v>
+        <v>11.85605274897534</v>
       </c>
       <c r="M5">
-        <v>11.34203324852922</v>
+        <v>16.46719978380673</v>
       </c>
       <c r="N5">
-        <v>12.92561631950591</v>
+        <v>18.96835191582451</v>
       </c>
       <c r="O5">
-        <v>16.56727079050825</v>
+        <v>25.99170124637415</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.46495263863953</v>
+        <v>15.49131300538517</v>
       </c>
       <c r="C6">
-        <v>10.40982544318757</v>
+        <v>8.118920466214275</v>
       </c>
       <c r="D6">
-        <v>5.150185159945543</v>
+        <v>8.826585953958038</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.27646089680514</v>
+        <v>34.22645268619743</v>
       </c>
       <c r="G6">
-        <v>2.102010820676508</v>
+        <v>3.666671765514148</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.48522532316195</v>
+        <v>25.39255247150075</v>
       </c>
       <c r="J6">
-        <v>6.21830654087083</v>
+        <v>10.35142300699014</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.024301500273762</v>
+        <v>11.85645431729993</v>
       </c>
       <c r="M6">
-        <v>11.32000763847597</v>
+        <v>16.4643349617114</v>
       </c>
       <c r="N6">
-        <v>12.93240740826867</v>
+        <v>18.97072599948045</v>
       </c>
       <c r="O6">
-        <v>16.56297150635389</v>
+        <v>25.9949800494951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.84474553113908</v>
+        <v>15.60243821754633</v>
       </c>
       <c r="C7">
-        <v>10.58562351051085</v>
+        <v>8.195171650913402</v>
       </c>
       <c r="D7">
-        <v>5.161184085287728</v>
+        <v>8.82382201921857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.35036275574605</v>
+        <v>34.20196917059702</v>
       </c>
       <c r="G7">
-        <v>2.100455553615861</v>
+        <v>3.666041447695945</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.4409233304992</v>
+        <v>25.36073956816507</v>
       </c>
       <c r="J7">
-        <v>6.204281135811842</v>
+        <v>10.34608315766305</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.05010884616896</v>
+        <v>11.85378604426664</v>
       </c>
       <c r="M7">
-        <v>11.47229259906877</v>
+        <v>16.48439917730589</v>
       </c>
       <c r="N7">
-        <v>12.88555882794845</v>
+        <v>18.95440490498681</v>
       </c>
       <c r="O7">
-        <v>16.59399065107208</v>
+        <v>25.97271296703665</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.47455165042569</v>
+        <v>16.08818039889321</v>
       </c>
       <c r="C8">
-        <v>11.32704254928534</v>
+        <v>8.520452332696662</v>
       </c>
       <c r="D8">
-        <v>5.212894283105111</v>
+        <v>8.813479607255276</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.7143494504044</v>
+        <v>34.11075391669249</v>
       </c>
       <c r="G8">
-        <v>2.093824297450543</v>
+        <v>3.6634073571495</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.27095224350079</v>
+        <v>25.2305931015487</v>
       </c>
       <c r="J8">
-        <v>6.14440278455506</v>
+        <v>10.323726162859</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.168362156714575</v>
+        <v>11.84495174364568</v>
       </c>
       <c r="M8">
-        <v>12.12818881872762</v>
+        <v>16.57728797458686</v>
       </c>
       <c r="N8">
-        <v>12.68596897905266</v>
+        <v>18.88627718554238</v>
       </c>
       <c r="O8">
-        <v>16.76058267216119</v>
+        <v>25.88663110847734</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.40403977058603</v>
+        <v>17.0154346532665</v>
       </c>
       <c r="C9">
-        <v>12.65225875862284</v>
+        <v>9.114324655561195</v>
       </c>
       <c r="D9">
-        <v>5.325490324993027</v>
+        <v>8.799829531639194</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.56643698698553</v>
+        <v>33.9925422191072</v>
       </c>
       <c r="G9">
-        <v>2.081616770189437</v>
+        <v>3.658768052300087</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.03781893953785</v>
+        <v>25.01222352772065</v>
       </c>
       <c r="J9">
-        <v>6.033981906051782</v>
+        <v>10.28419431800459</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.414899901450195</v>
+        <v>11.83813795108567</v>
       </c>
       <c r="M9">
-        <v>13.34566228622054</v>
+        <v>16.77422944746113</v>
       </c>
       <c r="N9">
-        <v>12.32021041444304</v>
+        <v>18.76660537101606</v>
       </c>
       <c r="O9">
-        <v>17.19892611733433</v>
+        <v>25.76175429489508</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.33450422455691</v>
+        <v>17.67416702692249</v>
       </c>
       <c r="C10">
-        <v>13.54426791430387</v>
+        <v>9.520943335576156</v>
       </c>
       <c r="D10">
-        <v>5.414818166119847</v>
+        <v>8.793813359415147</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.27775065846946</v>
+        <v>33.94280957716857</v>
       </c>
       <c r="G10">
-        <v>2.073096399371163</v>
+        <v>3.655676982386326</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.93587695993199</v>
+        <v>24.87429964776256</v>
       </c>
       <c r="J10">
-        <v>5.956890225539134</v>
+        <v>10.25775252421358</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.603973464875254</v>
+        <v>11.83948518092682</v>
       </c>
       <c r="M10">
-        <v>14.19052388081453</v>
+        <v>16.92713947082462</v>
       </c>
       <c r="N10">
-        <v>12.06714614424164</v>
+        <v>18.68710815868198</v>
       </c>
       <c r="O10">
-        <v>17.59277081427205</v>
+        <v>25.69691831817183</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.1654492880741</v>
+        <v>17.96759700058733</v>
       </c>
       <c r="C11">
-        <v>13.93194778635821</v>
+        <v>9.698964623846924</v>
       </c>
       <c r="D11">
-        <v>5.456837994827113</v>
+        <v>8.791940935479433</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.61988135887725</v>
+        <v>33.92826260223183</v>
       </c>
       <c r="G11">
-        <v>2.069308995200945</v>
+        <v>3.654338995213203</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.90644421838807</v>
+        <v>24.81645377570235</v>
       </c>
       <c r="J11">
-        <v>5.922641730457269</v>
+        <v>10.24628313123315</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.691503245592275</v>
+        <v>11.84146490831906</v>
       </c>
       <c r="M11">
-        <v>14.56286168561511</v>
+        <v>16.99830757357049</v>
       </c>
       <c r="N11">
-        <v>11.95544906207467</v>
+        <v>18.65275893588424</v>
       </c>
       <c r="O11">
-        <v>17.78817048714928</v>
+        <v>25.6732888376757</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.47338863867226</v>
+        <v>18.07771309171482</v>
       </c>
       <c r="C12">
-        <v>14.07613059247221</v>
+        <v>9.765340222536862</v>
       </c>
       <c r="D12">
-        <v>5.47294417777556</v>
+        <v>8.791355573886568</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.75209541130931</v>
+        <v>33.92391585926809</v>
       </c>
       <c r="G12">
-        <v>2.067886783488538</v>
+        <v>3.653842081537641</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.89789726063394</v>
+        <v>24.79525417435037</v>
       </c>
       <c r="J12">
-        <v>5.909786222478001</v>
+        <v>10.2420199665705</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.724849754510643</v>
+        <v>11.84240992399266</v>
       </c>
       <c r="M12">
-        <v>14.70205130336613</v>
+        <v>17.02547267635486</v>
       </c>
       <c r="N12">
-        <v>11.91364914250988</v>
+        <v>18.64001171884683</v>
       </c>
       <c r="O12">
-        <v>17.86454057698183</v>
+        <v>25.66518566088816</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.40736618484189</v>
+        <v>18.05404363613635</v>
       </c>
       <c r="C13">
-        <v>14.04519513429522</v>
+        <v>9.751091733886733</v>
       </c>
       <c r="D13">
-        <v>5.469466863584148</v>
+        <v>8.791476151031432</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.72350280782014</v>
+        <v>33.92480033242682</v>
       </c>
       <c r="G13">
-        <v>2.068192560947859</v>
+        <v>3.653948667775898</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.89961979211191</v>
+        <v>24.79978849557287</v>
       </c>
       <c r="J13">
-        <v>5.91254990350785</v>
+        <v>10.2429345609159</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.717659324923311</v>
+        <v>11.84219773046829</v>
       </c>
       <c r="M13">
-        <v>14.67215581837778</v>
+        <v>17.01961286882286</v>
       </c>
       <c r="N13">
-        <v>11.92262928556184</v>
+        <v>18.64274550561065</v>
       </c>
       <c r="O13">
-        <v>17.84798661273613</v>
+        <v>25.66689323268372</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.19091794135453</v>
+        <v>17.97667691303583</v>
       </c>
       <c r="C14">
-        <v>13.94386244733915</v>
+        <v>9.704446371844245</v>
       </c>
       <c r="D14">
-        <v>5.458159196124157</v>
+        <v>8.791890302179057</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.6307055218433</v>
+        <v>33.92788170680695</v>
       </c>
       <c r="G14">
-        <v>2.069191752960752</v>
+        <v>3.654297918633202</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.90568802846099</v>
+        <v>24.81469552760534</v>
       </c>
       <c r="J14">
-        <v>5.921581848180312</v>
+        <v>10.24593079589536</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.694242755085119</v>
+        <v>11.84153874772525</v>
       </c>
       <c r="M14">
-        <v>14.57434952065403</v>
+        <v>17.00053824111396</v>
       </c>
       <c r="N14">
-        <v>11.95200015523714</v>
+        <v>18.6517050067906</v>
       </c>
       <c r="O14">
-        <v>17.7944056535457</v>
+        <v>25.67260524627885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.05746393241869</v>
+        <v>17.92915446506435</v>
       </c>
       <c r="C15">
-        <v>13.88145119722138</v>
+        <v>9.675738622375423</v>
       </c>
       <c r="D15">
-        <v>5.451258068334976</v>
+        <v>8.792160070618078</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.57421008357802</v>
+        <v>33.92992045191556</v>
       </c>
       <c r="G15">
-        <v>2.069805326470084</v>
+        <v>3.654513113589869</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.90974831210975</v>
+        <v>24.82391841397175</v>
       </c>
       <c r="J15">
-        <v>5.927128842308581</v>
+        <v>10.24777649017394</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.679925081087577</v>
+        <v>11.84116050294711</v>
       </c>
       <c r="M15">
-        <v>14.51420289824303</v>
+        <v>16.98888203680728</v>
       </c>
       <c r="N15">
-        <v>11.97005560773858</v>
+        <v>18.65722680685585</v>
       </c>
       <c r="O15">
-        <v>17.76189639594957</v>
+        <v>25.67621407458575</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.27925554437634</v>
+        <v>17.65485628001236</v>
       </c>
       <c r="C16">
-        <v>13.51856594138847</v>
+        <v>9.509166035093063</v>
       </c>
       <c r="D16">
-        <v>5.412099509109179</v>
+        <v>8.793953068347173</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.25576404903674</v>
+        <v>33.9439228334036</v>
       </c>
       <c r="G16">
-        <v>2.073345635038927</v>
+        <v>3.655765790379753</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.9381551381626</v>
+        <v>24.87817864860665</v>
       </c>
       <c r="J16">
-        <v>5.959144593216282</v>
+        <v>10.25851329643782</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.598282239952642</v>
+        <v>11.83938320339769</v>
       </c>
       <c r="M16">
-        <v>14.16594201818492</v>
+        <v>16.92251947388481</v>
       </c>
       <c r="N16">
-        <v>12.07451509410648</v>
+        <v>18.68938940142417</v>
       </c>
       <c r="O16">
-        <v>17.5803314058944</v>
+        <v>25.69858070496325</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.78980194788799</v>
+        <v>17.48491121390845</v>
       </c>
       <c r="C17">
-        <v>13.29129415831017</v>
+        <v>9.405170613455754</v>
       </c>
       <c r="D17">
-        <v>5.388428064190514</v>
+        <v>8.795273972254769</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.06515249041353</v>
+        <v>33.95458199690852</v>
       </c>
       <c r="G17">
-        <v>2.075539669814075</v>
+        <v>3.65655168932699</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.96003492020031</v>
+        <v>24.91272053549409</v>
       </c>
       <c r="J17">
-        <v>5.978992411973489</v>
+        <v>10.2652429283086</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.548573396474476</v>
+        <v>11.83864213026033</v>
       </c>
       <c r="M17">
-        <v>13.94915997081009</v>
+        <v>16.88220888487088</v>
       </c>
       <c r="N17">
-        <v>12.13947749866889</v>
+        <v>18.7095842418717</v>
       </c>
       <c r="O17">
-        <v>17.47313737737802</v>
+        <v>25.71380513825445</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.50383105900665</v>
+        <v>17.38658252495902</v>
       </c>
       <c r="C18">
-        <v>13.15887037993463</v>
+        <v>9.344702851420521</v>
       </c>
       <c r="D18">
-        <v>5.374943451940839</v>
+        <v>8.796115117165817</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.95726482960082</v>
+        <v>33.96147308998375</v>
       </c>
       <c r="G18">
-        <v>2.076810002624087</v>
+        <v>3.657010135611748</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.97420414320653</v>
+        <v>24.93304890954261</v>
       </c>
       <c r="J18">
-        <v>5.990485893922417</v>
+        <v>10.26916628176799</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.52012620366118</v>
+        <v>11.83834461768414</v>
       </c>
       <c r="M18">
-        <v>13.8233475838958</v>
+        <v>16.85917568652686</v>
       </c>
       <c r="N18">
-        <v>12.17716396263071</v>
+        <v>18.72137061361437</v>
       </c>
       <c r="O18">
-        <v>17.41300849680047</v>
+        <v>25.72311377808166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.40623980178093</v>
+        <v>17.35319365554735</v>
       </c>
       <c r="C19">
-        <v>13.11374224631476</v>
+        <v>9.324118678503563</v>
       </c>
       <c r="D19">
-        <v>5.370400368424372</v>
+        <v>8.796413912386992</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.92103624900247</v>
+        <v>33.96393684044786</v>
       </c>
       <c r="G19">
-        <v>2.077241576862871</v>
+        <v>3.657166461404554</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.97926887472609</v>
+        <v>24.94001085079442</v>
       </c>
       <c r="J19">
-        <v>5.994390837667105</v>
+        <v>10.2705037148835</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.510519755472302</v>
+        <v>11.83826603104482</v>
       </c>
       <c r="M19">
-        <v>13.78055919207388</v>
+        <v>16.85140369684059</v>
       </c>
       <c r="N19">
-        <v>12.18997909196034</v>
+        <v>18.72539064298925</v>
       </c>
       <c r="O19">
-        <v>17.39291067564621</v>
+        <v>25.72636027195657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.84236518562469</v>
+        <v>17.50306304019333</v>
       </c>
       <c r="C20">
-        <v>13.31566406684715</v>
+        <v>9.416308904336194</v>
       </c>
       <c r="D20">
-        <v>5.390934450896354</v>
+        <v>8.79512493995372</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.0852626688613</v>
+        <v>33.95336862501588</v>
       </c>
       <c r="G20">
-        <v>2.075305248760278</v>
+        <v>3.656467365150555</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.95754062325196</v>
+        <v>24.90899579293884</v>
       </c>
       <c r="J20">
-        <v>5.976871583672275</v>
+        <v>10.26452110129522</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.553850211951464</v>
+        <v>11.83870770397336</v>
       </c>
       <c r="M20">
-        <v>13.97235387524707</v>
+        <v>16.8864843595486</v>
       </c>
       <c r="N20">
-        <v>12.13252880197411</v>
+        <v>18.70741679204641</v>
       </c>
       <c r="O20">
-        <v>17.4843900814035</v>
+        <v>25.71212733522017</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.25467588447683</v>
+        <v>17.99942930564064</v>
       </c>
       <c r="C21">
-        <v>13.97369762060684</v>
+        <v>9.71817567361675</v>
       </c>
       <c r="D21">
-        <v>5.461475300560969</v>
+        <v>8.791765304157167</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.6578903399341</v>
+        <v>33.92694509873835</v>
       </c>
       <c r="G21">
-        <v>2.068897946587983</v>
+        <v>3.654195070874047</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.90383379776853</v>
+        <v>24.81029781701717</v>
       </c>
       <c r="J21">
-        <v>5.918925898590665</v>
+        <v>10.24504855944496</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.70111545388901</v>
+        <v>11.84172701561834</v>
       </c>
       <c r="M21">
-        <v>14.60312720820679</v>
+        <v>17.00613520802561</v>
       </c>
       <c r="N21">
-        <v>11.94335967266744</v>
+        <v>18.64906633190249</v>
       </c>
       <c r="O21">
-        <v>17.8100788789394</v>
+        <v>25.670904551895</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.1385587458115</v>
+        <v>18.31796527594694</v>
       </c>
       <c r="C22">
-        <v>14.38846796993424</v>
+        <v>9.909402890602927</v>
       </c>
       <c r="D22">
-        <v>5.508707479171863</v>
+        <v>8.790290217426543</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.04761321929352</v>
+        <v>33.9164478973756</v>
       </c>
       <c r="G22">
-        <v>2.064779949977353</v>
+        <v>3.652766821454446</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.88395836326011</v>
+        <v>24.74990505082932</v>
       </c>
       <c r="J22">
-        <v>5.881715314950385</v>
+        <v>10.23278853230775</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.798525117612691</v>
+        <v>11.84483826368206</v>
       </c>
       <c r="M22">
-        <v>15.00481633627728</v>
+        <v>17.08558117527733</v>
       </c>
       <c r="N22">
-        <v>11.82262913489356</v>
+        <v>18.61244655511492</v>
       </c>
       <c r="O22">
-        <v>18.03680300620788</v>
+        <v>25.64888764300084</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.67037162607513</v>
+        <v>18.14852569770217</v>
       </c>
       <c r="C23">
-        <v>14.16850081935692</v>
+        <v>9.807907189790988</v>
       </c>
       <c r="D23">
-        <v>5.483397003929838</v>
+        <v>8.791011768891789</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.8381989830242</v>
+        <v>33.92143081219032</v>
       </c>
       <c r="G23">
-        <v>2.066971694926997</v>
+        <v>3.653523921109988</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.89311830829771</v>
+        <v>24.78176112674346</v>
       </c>
       <c r="J23">
-        <v>5.90151639472</v>
+        <v>10.23928937961974</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.746434907484109</v>
+        <v>11.8430740293518</v>
       </c>
       <c r="M23">
-        <v>14.79141642188091</v>
+        <v>17.04307061591788</v>
       </c>
       <c r="N23">
-        <v>11.88679761687711</v>
+        <v>18.63185280843277</v>
       </c>
       <c r="O23">
-        <v>17.91451478547302</v>
+        <v>25.66018748422173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.81861560903515</v>
+        <v>17.49485853831654</v>
       </c>
       <c r="C24">
-        <v>13.30465191840776</v>
+        <v>9.411275396383497</v>
       </c>
       <c r="D24">
-        <v>5.389800925566828</v>
+        <v>8.795192062813301</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.0761655691527</v>
+        <v>33.95391481379582</v>
       </c>
       <c r="G24">
-        <v>2.075411202576947</v>
+        <v>3.65650546747843</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.95866335389549</v>
+        <v>24.91067828578396</v>
       </c>
       <c r="J24">
-        <v>5.977830152205199</v>
+        <v>10.2648472698148</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.551464154033984</v>
+        <v>11.83867765761953</v>
       </c>
       <c r="M24">
-        <v>13.96187158477609</v>
+        <v>16.88455097423082</v>
       </c>
       <c r="N24">
-        <v>12.13566925310225</v>
+        <v>18.70839614753413</v>
       </c>
       <c r="O24">
-        <v>17.479298069947</v>
+        <v>25.71288413844646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.65078760346106</v>
+        <v>16.76805713004594</v>
       </c>
       <c r="C25">
-        <v>12.30791324639338</v>
+        <v>8.958693064026111</v>
       </c>
       <c r="D25">
-        <v>5.293853327496772</v>
+        <v>8.802815328760305</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.3209770308444</v>
+        <v>34.01801107489409</v>
       </c>
       <c r="G25">
-        <v>2.084837675467837</v>
+        <v>3.6599671251641</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.08933027209509</v>
+        <v>25.06734851585044</v>
       </c>
       <c r="J25">
-        <v>6.063127737020111</v>
+        <v>10.29442992816667</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.346738128167112</v>
+        <v>11.83886138390119</v>
       </c>
       <c r="M25">
-        <v>13.02453580419689</v>
+        <v>16.71944897456097</v>
       </c>
       <c r="N25">
-        <v>12.41641384448259</v>
+        <v>18.79749556123506</v>
       </c>
       <c r="O25">
-        <v>17.06797367688353</v>
+        <v>25.79081930333779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.21836188366955</v>
+        <v>18.90528758291562</v>
       </c>
       <c r="C2">
-        <v>8.605727679572531</v>
+        <v>11.51937209594013</v>
       </c>
       <c r="D2">
-        <v>8.811127173145866</v>
+        <v>5.22766995434637</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.09013796710386</v>
+        <v>22.82227005972759</v>
       </c>
       <c r="G2">
-        <v>3.662729381142114</v>
+        <v>2.09208275706493</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.19782175660043</v>
+        <v>15.23138387425852</v>
       </c>
       <c r="J2">
-        <v>10.31796117393695</v>
+        <v>6.128660824862909</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.8432712171455</v>
+        <v>7.201429748590675</v>
       </c>
       <c r="M2">
-        <v>16.6034853301032</v>
+        <v>12.30158599216068</v>
       </c>
       <c r="N2">
-        <v>18.86876288371683</v>
+        <v>12.63362605607498</v>
       </c>
       <c r="O2">
-        <v>25.86627466905471</v>
+        <v>16.81312007149806</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.83908569977678</v>
+        <v>17.63162991456239</v>
       </c>
       <c r="C3">
-        <v>8.355152980597151</v>
+        <v>10.9519044557516</v>
       </c>
       <c r="D3">
-        <v>8.818453654927906</v>
+        <v>5.185671935377548</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.15452684217377</v>
+        <v>22.51973422478654</v>
       </c>
       <c r="G3">
-        <v>3.664735672705961</v>
+        <v>2.097195006268593</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.29566029792337</v>
+        <v>15.35352343657586</v>
       </c>
       <c r="J3">
-        <v>10.33500864169642</v>
+        <v>6.174853348338299</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.84894389026018</v>
+        <v>7.106663595362706</v>
       </c>
       <c r="M3">
-        <v>16.52864988538082</v>
+        <v>11.79370401784876</v>
       </c>
       <c r="N3">
-        <v>18.92061666096053</v>
+        <v>12.78737756674329</v>
       </c>
       <c r="O3">
-        <v>25.92864198422926</v>
+        <v>16.66911336029608</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.60373641578065</v>
+        <v>16.84914126373222</v>
       </c>
       <c r="C4">
-        <v>8.196057950913618</v>
+        <v>10.58766208850992</v>
       </c>
       <c r="D4">
-        <v>8.82379069391115</v>
+        <v>5.161314531336277</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.20169187913827</v>
+        <v>22.35124806739356</v>
       </c>
       <c r="G4">
-        <v>3.666034153018252</v>
+        <v>2.100437483609162</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.36037291759616</v>
+        <v>15.44041852899727</v>
       </c>
       <c r="J4">
-        <v>10.34602133646689</v>
+        <v>6.20411813360864</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.8537564335078</v>
+        <v>7.050413262664756</v>
       </c>
       <c r="M4">
-        <v>16.48463637088586</v>
+        <v>11.47406630104101</v>
       </c>
       <c r="N4">
-        <v>18.95421606230185</v>
+        <v>12.88501455553607</v>
       </c>
       <c r="O4">
-        <v>25.97245907011188</v>
+        <v>16.59436960857463</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.5073441134522</v>
+        <v>16.52018241427917</v>
       </c>
       <c r="C5">
-        <v>8.129968578666034</v>
+        <v>10.43534833256468</v>
       </c>
       <c r="D5">
-        <v>8.826176939829532</v>
+        <v>5.151751176511302</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.22282753450633</v>
+        <v>22.28688936205225</v>
       </c>
       <c r="G5">
-        <v>3.666580095822614</v>
+        <v>2.101785383454043</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.3879096328917</v>
+        <v>15.47869901763733</v>
       </c>
       <c r="J5">
-        <v>10.35064665646128</v>
+        <v>6.216274054410981</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.85605274897534</v>
+        <v>7.02799348396703</v>
       </c>
       <c r="M5">
-        <v>16.46719978380673</v>
+        <v>11.34203324852919</v>
       </c>
       <c r="N5">
-        <v>18.96835191582451</v>
+        <v>12.92561631950588</v>
       </c>
       <c r="O5">
-        <v>25.99170124637415</v>
+        <v>16.56727079050811</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.49131300538517</v>
+        <v>16.46495263863956</v>
       </c>
       <c r="C6">
-        <v>8.118920466214275</v>
+        <v>10.40982544318753</v>
       </c>
       <c r="D6">
-        <v>8.826585953958038</v>
+        <v>5.150185159945663</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.22645268619743</v>
+        <v>22.2764608968052</v>
       </c>
       <c r="G6">
-        <v>3.666671765514148</v>
+        <v>2.102010820676507</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.39255247150075</v>
+        <v>15.48522532316196</v>
       </c>
       <c r="J6">
-        <v>10.35142300699014</v>
+        <v>6.21830654087093</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.85645431729993</v>
+        <v>7.024301500273872</v>
       </c>
       <c r="M6">
-        <v>16.4643349617114</v>
+        <v>11.32000763847602</v>
       </c>
       <c r="N6">
-        <v>18.97072599948045</v>
+        <v>12.93240740826866</v>
       </c>
       <c r="O6">
-        <v>25.9949800494951</v>
+        <v>16.5629715063539</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.60243821754633</v>
+        <v>16.84474553113909</v>
       </c>
       <c r="C7">
-        <v>8.195171650913402</v>
+        <v>10.58562351051072</v>
       </c>
       <c r="D7">
-        <v>8.82382201921857</v>
+        <v>5.161184085287617</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.20196917059702</v>
+        <v>22.35036275574605</v>
       </c>
       <c r="G7">
-        <v>3.666041447695945</v>
+        <v>2.100455553615997</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.36073956816507</v>
+        <v>15.44092333049921</v>
       </c>
       <c r="J7">
-        <v>10.34608315766305</v>
+        <v>6.204281135811906</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.85378604426664</v>
+        <v>7.050108846169009</v>
       </c>
       <c r="M7">
-        <v>16.48439917730589</v>
+        <v>11.47229259906878</v>
       </c>
       <c r="N7">
-        <v>18.95440490498681</v>
+        <v>12.88555882794845</v>
       </c>
       <c r="O7">
-        <v>25.97271296703665</v>
+        <v>16.59399065107213</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.08818039889321</v>
+        <v>18.4745516504257</v>
       </c>
       <c r="C8">
-        <v>8.520452332696662</v>
+        <v>11.32704254928542</v>
       </c>
       <c r="D8">
-        <v>8.813479607255276</v>
+        <v>5.212894283104936</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.11075391669249</v>
+        <v>22.71434945040433</v>
       </c>
       <c r="G8">
-        <v>3.6634073571495</v>
+        <v>2.093824297450277</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.2305931015487</v>
+        <v>15.27095224350083</v>
       </c>
       <c r="J8">
-        <v>10.323726162859</v>
+        <v>6.144402784555127</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.84495174364568</v>
+        <v>7.168362156714547</v>
       </c>
       <c r="M8">
-        <v>16.57728797458686</v>
+        <v>12.12818881872761</v>
       </c>
       <c r="N8">
-        <v>18.88627718554238</v>
+        <v>12.68596897905266</v>
       </c>
       <c r="O8">
-        <v>25.88663110847734</v>
+        <v>16.76058267216116</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.0154346532665</v>
+        <v>21.40403977058604</v>
       </c>
       <c r="C9">
-        <v>9.114324655561195</v>
+        <v>12.65225875862291</v>
       </c>
       <c r="D9">
-        <v>8.799829531639194</v>
+        <v>5.325490324992919</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.9925422191072</v>
+        <v>23.56643698698563</v>
       </c>
       <c r="G9">
-        <v>3.658768052300087</v>
+        <v>2.081616770189708</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.01222352772065</v>
+        <v>15.03781893953805</v>
       </c>
       <c r="J9">
-        <v>10.28419431800459</v>
+        <v>6.033981906051849</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.83813795108567</v>
+        <v>7.414899901450174</v>
       </c>
       <c r="M9">
-        <v>16.77422944746113</v>
+        <v>13.34566228622055</v>
       </c>
       <c r="N9">
-        <v>18.76660537101606</v>
+        <v>12.32021041444314</v>
       </c>
       <c r="O9">
-        <v>25.76175429489508</v>
+        <v>17.19892611733444</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67416702692249</v>
+        <v>23.33450422455691</v>
       </c>
       <c r="C10">
-        <v>9.520943335576156</v>
+        <v>13.54426791430385</v>
       </c>
       <c r="D10">
-        <v>8.793813359415147</v>
+        <v>5.414818166119742</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.94280957716857</v>
+        <v>24.2777506584695</v>
       </c>
       <c r="G10">
-        <v>3.655676982386326</v>
+        <v>2.073096399371031</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.87429964776256</v>
+        <v>14.93587695993206</v>
       </c>
       <c r="J10">
-        <v>10.25775252421358</v>
+        <v>5.956890225539067</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.83948518092682</v>
+        <v>7.603973464875194</v>
       </c>
       <c r="M10">
-        <v>16.92713947082462</v>
+        <v>14.19052388081453</v>
       </c>
       <c r="N10">
-        <v>18.68710815868198</v>
+        <v>12.06714614424163</v>
       </c>
       <c r="O10">
-        <v>25.69691831817183</v>
+        <v>17.59277081427212</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.96759700058733</v>
+        <v>24.1654492880741</v>
       </c>
       <c r="C11">
-        <v>9.698964623846924</v>
+        <v>13.93194778635813</v>
       </c>
       <c r="D11">
-        <v>8.791940935479433</v>
+        <v>5.456837994827113</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.92826260223183</v>
+        <v>24.61988135887722</v>
       </c>
       <c r="G11">
-        <v>3.654338995213203</v>
+        <v>2.069308995200944</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.81645377570235</v>
+        <v>14.90644421838801</v>
       </c>
       <c r="J11">
-        <v>10.24628313123315</v>
+        <v>5.922641730457201</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.84146490831906</v>
+        <v>7.691503245592244</v>
       </c>
       <c r="M11">
-        <v>16.99830757357049</v>
+        <v>14.5628616856151</v>
       </c>
       <c r="N11">
-        <v>18.65275893588424</v>
+        <v>11.9554490620746</v>
       </c>
       <c r="O11">
-        <v>25.6732888376757</v>
+        <v>17.78817048714925</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.07771309171482</v>
+        <v>24.47338863867222</v>
       </c>
       <c r="C12">
-        <v>9.765340222536862</v>
+        <v>14.076130592472</v>
       </c>
       <c r="D12">
-        <v>8.791355573886568</v>
+        <v>5.472944177775396</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.92391585926809</v>
+        <v>24.75209541130942</v>
       </c>
       <c r="G12">
-        <v>3.653842081537641</v>
+        <v>2.067886783488808</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.79525417435037</v>
+        <v>14.89789726063403</v>
       </c>
       <c r="J12">
-        <v>10.2420199665705</v>
+        <v>5.909786222478069</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.84240992399266</v>
+        <v>7.72484975451066</v>
       </c>
       <c r="M12">
-        <v>17.02547267635486</v>
+        <v>14.70205130336617</v>
       </c>
       <c r="N12">
-        <v>18.64001171884683</v>
+        <v>11.91364914250987</v>
       </c>
       <c r="O12">
-        <v>25.66518566088816</v>
+        <v>17.86454057698192</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.05404363613635</v>
+        <v>24.40736618484189</v>
       </c>
       <c r="C13">
-        <v>9.751091733886733</v>
+        <v>14.04519513429532</v>
       </c>
       <c r="D13">
-        <v>8.791476151031432</v>
+        <v>5.469466863584235</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.92480033242682</v>
+        <v>24.72350280782014</v>
       </c>
       <c r="G13">
-        <v>3.653948667775898</v>
+        <v>2.068192560947991</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.79978849557287</v>
+        <v>14.89961979211191</v>
       </c>
       <c r="J13">
-        <v>10.2429345609159</v>
+        <v>5.912549903507747</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.84219773046829</v>
+        <v>7.717659324923251</v>
       </c>
       <c r="M13">
-        <v>17.01961286882286</v>
+        <v>14.67215581837775</v>
       </c>
       <c r="N13">
-        <v>18.64274550561065</v>
+        <v>11.92262928556184</v>
       </c>
       <c r="O13">
-        <v>25.66689323268372</v>
+        <v>17.8479866127361</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.97667691303583</v>
+        <v>24.19091794135451</v>
       </c>
       <c r="C14">
-        <v>9.704446371844245</v>
+        <v>13.9438624473393</v>
       </c>
       <c r="D14">
-        <v>8.791890302179057</v>
+        <v>5.458159196124182</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.92788170680695</v>
+        <v>24.6307055218433</v>
       </c>
       <c r="G14">
-        <v>3.654297918633202</v>
+        <v>2.069191752960617</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.81469552760534</v>
+        <v>14.90568802846104</v>
       </c>
       <c r="J14">
-        <v>10.24593079589536</v>
+        <v>5.921581848180312</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.84153874772525</v>
+        <v>7.694242755085081</v>
       </c>
       <c r="M14">
-        <v>17.00053824111396</v>
+        <v>14.57434952065403</v>
       </c>
       <c r="N14">
-        <v>18.6517050067906</v>
+        <v>11.95200015523714</v>
       </c>
       <c r="O14">
-        <v>25.67260524627885</v>
+        <v>17.79440565354566</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.92915446506435</v>
+        <v>24.05746393241865</v>
       </c>
       <c r="C15">
-        <v>9.675738622375423</v>
+        <v>13.88145119722124</v>
       </c>
       <c r="D15">
-        <v>8.792160070618078</v>
+        <v>5.451258068334869</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.92992045191556</v>
+        <v>24.57421008357806</v>
       </c>
       <c r="G15">
-        <v>3.654513113589869</v>
+        <v>2.06980532647022</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.82391841397175</v>
+        <v>14.9097483121098</v>
       </c>
       <c r="J15">
-        <v>10.24777649017394</v>
+        <v>5.927128842308547</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.84116050294711</v>
+        <v>7.679925081087577</v>
       </c>
       <c r="M15">
-        <v>16.98888203680728</v>
+        <v>14.51420289824303</v>
       </c>
       <c r="N15">
-        <v>18.65722680685585</v>
+        <v>11.97005560773858</v>
       </c>
       <c r="O15">
-        <v>25.67621407458575</v>
+        <v>17.76189639594962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.65485628001236</v>
+        <v>23.27925554437638</v>
       </c>
       <c r="C16">
-        <v>9.509166035093063</v>
+        <v>13.51856594138838</v>
       </c>
       <c r="D16">
-        <v>8.793953068347173</v>
+        <v>5.41209950910923</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.9439228334036</v>
+        <v>24.25576404903679</v>
       </c>
       <c r="G16">
-        <v>3.655765790379753</v>
+        <v>2.073345635038659</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.87817864860665</v>
+        <v>14.93815513816259</v>
       </c>
       <c r="J16">
-        <v>10.25851329643782</v>
+        <v>5.95914459321635</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.83938320339769</v>
+        <v>7.598282239952749</v>
       </c>
       <c r="M16">
-        <v>16.92251947388481</v>
+        <v>14.16594201818495</v>
       </c>
       <c r="N16">
-        <v>18.68938940142417</v>
+        <v>12.07451509410647</v>
       </c>
       <c r="O16">
-        <v>25.69858070496325</v>
+        <v>17.5803314058944</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.48491121390845</v>
+        <v>22.78980194788802</v>
       </c>
       <c r="C17">
-        <v>9.405170613455754</v>
+        <v>13.29129415831023</v>
       </c>
       <c r="D17">
-        <v>8.795273972254769</v>
+        <v>5.388428064190459</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.95458199690852</v>
+        <v>24.06515249041341</v>
       </c>
       <c r="G17">
-        <v>3.65655168932699</v>
+        <v>2.075539669814208</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.91272053549409</v>
+        <v>14.96003492020022</v>
       </c>
       <c r="J17">
-        <v>10.2652429283086</v>
+        <v>5.978992411973523</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.83864213026033</v>
+        <v>7.548573396474486</v>
       </c>
       <c r="M17">
-        <v>16.88220888487088</v>
+        <v>13.94915997081008</v>
       </c>
       <c r="N17">
-        <v>18.7095842418717</v>
+        <v>12.13947749866879</v>
       </c>
       <c r="O17">
-        <v>25.71380513825445</v>
+        <v>17.47313737737791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.38658252495902</v>
+        <v>22.50383105900671</v>
       </c>
       <c r="C18">
-        <v>9.344702851420521</v>
+        <v>13.15887037993471</v>
       </c>
       <c r="D18">
-        <v>8.796115117165817</v>
+        <v>5.374943451940678</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.96147308998375</v>
+        <v>23.95726482960061</v>
       </c>
       <c r="G18">
-        <v>3.657010135611748</v>
+        <v>2.076810002623955</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.93304890954261</v>
+        <v>14.97420414320637</v>
       </c>
       <c r="J18">
-        <v>10.26916628176799</v>
+        <v>5.990485893922417</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.83834461768414</v>
+        <v>7.520126203661091</v>
       </c>
       <c r="M18">
-        <v>16.85917568652686</v>
+        <v>13.82334758389577</v>
       </c>
       <c r="N18">
-        <v>18.72137061361437</v>
+        <v>12.17716396263061</v>
       </c>
       <c r="O18">
-        <v>25.72311377808166</v>
+        <v>17.41300849680031</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.35319365554735</v>
+        <v>22.40623980178094</v>
       </c>
       <c r="C19">
-        <v>9.324118678503563</v>
+        <v>13.11374224631481</v>
       </c>
       <c r="D19">
-        <v>8.796413912386992</v>
+        <v>5.370400368424319</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.96393684044786</v>
+        <v>23.9210362490024</v>
       </c>
       <c r="G19">
-        <v>3.657166461404554</v>
+        <v>2.077241576862736</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.94001085079442</v>
+        <v>14.9792688747261</v>
       </c>
       <c r="J19">
-        <v>10.2705037148835</v>
+        <v>5.994390837667137</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.83826603104482</v>
+        <v>7.510519755472254</v>
       </c>
       <c r="M19">
-        <v>16.85140369684059</v>
+        <v>13.78055919207387</v>
       </c>
       <c r="N19">
-        <v>18.72539064298925</v>
+        <v>12.18997909196035</v>
       </c>
       <c r="O19">
-        <v>25.72636027195657</v>
+        <v>17.39291067564617</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.50306304019333</v>
+        <v>22.84236518562464</v>
       </c>
       <c r="C20">
-        <v>9.416308904336194</v>
+        <v>13.31566406684706</v>
       </c>
       <c r="D20">
-        <v>8.79512493995372</v>
+        <v>5.390934450896323</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.95336862501588</v>
+        <v>24.0852626688615</v>
       </c>
       <c r="G20">
-        <v>3.656467365150555</v>
+        <v>2.075305248760145</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.90899579293884</v>
+        <v>14.95754062325215</v>
       </c>
       <c r="J20">
-        <v>10.26452110129522</v>
+        <v>5.976871583672342</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.83870770397336</v>
+        <v>7.553850211951485</v>
       </c>
       <c r="M20">
-        <v>16.8864843595486</v>
+        <v>13.97235387524709</v>
       </c>
       <c r="N20">
-        <v>18.70741679204641</v>
+        <v>12.13252880197421</v>
       </c>
       <c r="O20">
-        <v>25.71212733522017</v>
+        <v>17.48439008140366</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99942930564064</v>
+        <v>24.25467588447688</v>
       </c>
       <c r="C21">
-        <v>9.71817567361675</v>
+        <v>13.9736976206068</v>
       </c>
       <c r="D21">
-        <v>8.791765304157167</v>
+        <v>5.461475300561128</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.92694509873835</v>
+        <v>24.65789033993422</v>
       </c>
       <c r="G21">
-        <v>3.654195070874047</v>
+        <v>2.068897946588251</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.81029781701717</v>
+        <v>14.9038337977686</v>
       </c>
       <c r="J21">
-        <v>10.24504855944496</v>
+        <v>5.918925898590665</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.84172701561834</v>
+        <v>7.701115453889036</v>
       </c>
       <c r="M21">
-        <v>17.00613520802561</v>
+        <v>14.60312720820679</v>
       </c>
       <c r="N21">
-        <v>18.64906633190249</v>
+        <v>11.94335967266746</v>
       </c>
       <c r="O21">
-        <v>25.670904551895</v>
+        <v>17.81007887893944</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31796527594694</v>
+        <v>25.13855874581152</v>
       </c>
       <c r="C22">
-        <v>9.909402890602927</v>
+        <v>14.38846796993418</v>
       </c>
       <c r="D22">
-        <v>8.790290217426543</v>
+        <v>5.508707479171898</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.9164478973756</v>
+        <v>25.04761321929354</v>
       </c>
       <c r="G22">
-        <v>3.652766821454446</v>
+        <v>2.064779949977486</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.74990505082932</v>
+        <v>14.8839583632601</v>
       </c>
       <c r="J22">
-        <v>10.23278853230775</v>
+        <v>5.881715314950452</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.84483826368206</v>
+        <v>7.79852511761278</v>
       </c>
       <c r="M22">
-        <v>17.08558117527733</v>
+        <v>15.00481633627729</v>
       </c>
       <c r="N22">
-        <v>18.61244655511492</v>
+        <v>11.82262913489363</v>
       </c>
       <c r="O22">
-        <v>25.64888764300084</v>
+        <v>18.0368030062079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.14852569770217</v>
+        <v>24.67037162607515</v>
       </c>
       <c r="C23">
-        <v>9.807907189790988</v>
+        <v>14.16850081935691</v>
       </c>
       <c r="D23">
-        <v>8.791011768891789</v>
+        <v>5.483397003929849</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.92143081219032</v>
+        <v>24.8381989830242</v>
       </c>
       <c r="G23">
-        <v>3.653523921109988</v>
+        <v>2.066971694926998</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.78176112674346</v>
+        <v>14.89311830829771</v>
       </c>
       <c r="J23">
-        <v>10.23928937961974</v>
+        <v>5.901516394720034</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.8430740293518</v>
+        <v>7.746434907484133</v>
       </c>
       <c r="M23">
-        <v>17.04307061591788</v>
+        <v>14.79141642188093</v>
       </c>
       <c r="N23">
-        <v>18.63185280843277</v>
+        <v>11.88679761687714</v>
       </c>
       <c r="O23">
-        <v>25.66018748422173</v>
+        <v>17.91451478547302</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.49485853831654</v>
+        <v>22.81861560903515</v>
       </c>
       <c r="C24">
-        <v>9.411275396383497</v>
+        <v>13.30465191840773</v>
       </c>
       <c r="D24">
-        <v>8.795192062813301</v>
+        <v>5.389800925566934</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.95391481379582</v>
+        <v>24.07616556915274</v>
       </c>
       <c r="G24">
-        <v>3.65650546747843</v>
+        <v>2.07541120257708</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.91067828578396</v>
+        <v>14.9586633538955</v>
       </c>
       <c r="J24">
-        <v>10.2648472698148</v>
+        <v>5.977830152205199</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.83867765761953</v>
+        <v>7.551464154034051</v>
       </c>
       <c r="M24">
-        <v>16.88455097423082</v>
+        <v>13.96187158477611</v>
       </c>
       <c r="N24">
-        <v>18.70839614753413</v>
+        <v>12.13566925310221</v>
       </c>
       <c r="O24">
-        <v>25.71288413844646</v>
+        <v>17.47929806994701</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.76805713004594</v>
+        <v>20.65078760346107</v>
       </c>
       <c r="C25">
-        <v>8.958693064026111</v>
+        <v>12.30791324639335</v>
       </c>
       <c r="D25">
-        <v>8.802815328760305</v>
+        <v>5.293853327496713</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.01801107489409</v>
+        <v>23.32097703084435</v>
       </c>
       <c r="G25">
-        <v>3.6599671251641</v>
+        <v>2.084837675467704</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.06734851585044</v>
+        <v>15.0893302720951</v>
       </c>
       <c r="J25">
-        <v>10.29442992816667</v>
+        <v>6.063127737020178</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.83886138390119</v>
+        <v>7.346738128167105</v>
       </c>
       <c r="M25">
-        <v>16.71944897456097</v>
+        <v>13.02453580419689</v>
       </c>
       <c r="N25">
-        <v>18.79749556123506</v>
+        <v>12.41641384448259</v>
       </c>
       <c r="O25">
-        <v>25.79081930333779</v>
+        <v>17.06797367688353</v>
       </c>
     </row>
   </sheetData>
